--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.54</t>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.55 fix 2</t>
+    <t xml:space="preserve">EA 23.61 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="439">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.61 fix 1</t>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>
@@ -953,6 +953,15 @@
     <t xml:space="preserve">請求書,納税箱,トレイナー,ガード</t>
   </si>
   <si>
+    <t xml:space="preserve">fortuneroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lose,3rd Prize,2nd Prize,1st Prize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ハズレ,3等,2等,1等</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 18.1</t>
   </si>
   <si>
@@ -1022,6 +1031,9 @@
     <t xml:space="preserve">EA 23.39</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.65</t>
+  </si>
+  <si>
     <t xml:space="preserve">January, February, March, April, May, June, July, August, September, October, November, Decemberr</t>
   </si>
   <si>
@@ -1232,7 +1244,7 @@
     <t xml:space="preserve">킹크랩,참다랑어,닭새우,대합,성게,해삼</t>
   </si>
   <si>
-    <t xml:space="preserve">우미먀아!,우먓!,우미미,재미없어,신경 써줘!,(푸식-・・・)</t>
+    <t xml:space="preserve">우미먀아!,우먓!,우미미,재미 없어,신경 써 줘!,(푸식-・・・)</t>
   </si>
   <si>
     <t xml:space="preserve">풀어다오…!,우리들의 검을…!,나의 검을…!,검을…,나의 친구를…,나의 영혼을…,나의 긍지를…,부탁이다…검을…,이 순간을 기다려왔다…,놈에게 속박된 나의 검을…,녀석에게 빼앗긴 나의 검을…,검을…,해방…시켜주겠나…?,누구냐…?,13</t>
@@ -1292,7 +1304,7 @@
     <t xml:space="preserve">최저,낮은,보통,높은,최고</t>
   </si>
   <si>
-    <t xml:space="preserve">들판에서의 하룻밤, 들판에서의 하룻밤(겨울)(테스트), 동굴에서(테스트)</t>
+    <t xml:space="preserve">들판에서의 하룻밤,들판에서의 하룻밤(겨울)(테스트),동굴에서(테스트)</t>
   </si>
   <si>
     <t xml:space="preserve">없음,운명의 서약,영원의 서약</t>
@@ -1313,10 +1325,13 @@
     <t xml:space="preserve">위</t>
   </si>
   <si>
-    <t xml:space="preserve">갓 자란, 조금 복실복실,폭신폭신, 푹신푹신</t>
+    <t xml:space="preserve">갓 자란,조금 복실복실,폭신폭신, 푹신푹신</t>
   </si>
   <si>
     <t xml:space="preserve">청구서,납세 상자,트레이너,경비병</t>
+  </si>
+  <si>
+    <t xml:space="preserve">꽝,3등,2등,1등</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1433,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C3"/>
       <c r="E3" t="s">
@@ -1431,11 +1446,11 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1449,11 +1464,11 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1467,11 +1482,11 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -1485,11 +1500,11 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -1503,11 +1518,11 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -1521,11 +1536,11 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -1539,11 +1554,11 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
@@ -1557,11 +1572,11 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
@@ -1575,13 +1590,13 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E12" t="s">
         <v>33</v>
@@ -1595,11 +1610,11 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -1613,13 +1628,13 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
@@ -1633,13 +1648,13 @@
         <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="E15" t="s">
         <v>43</v>
@@ -1653,13 +1668,13 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E16" t="s">
         <v>46</v>
@@ -1673,13 +1688,13 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E17" t="s">
         <v>49</v>
@@ -1693,13 +1708,13 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E18" t="s">
         <v>52</v>
@@ -1713,13 +1728,13 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E19" t="s">
         <v>55</v>
@@ -1733,13 +1748,13 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E20" t="s">
         <v>58</v>
@@ -1753,13 +1768,13 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E21" t="s">
         <v>61</v>
@@ -1773,13 +1788,13 @@
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E22" t="s">
         <v>64</v>
@@ -1793,13 +1808,13 @@
         <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E23" t="s">
         <v>67</v>
@@ -1813,13 +1828,13 @@
         <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E24" t="s">
         <v>70</v>
@@ -1833,13 +1848,13 @@
         <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E25" t="s">
         <v>73</v>
@@ -1853,13 +1868,13 @@
         <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E26" t="s">
         <v>76</v>
@@ -1873,13 +1888,13 @@
         <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E27" t="s">
         <v>79</v>
@@ -1893,13 +1908,13 @@
         <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E28" t="s">
         <v>82</v>
@@ -1913,13 +1928,13 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E29" t="s">
         <v>85</v>
@@ -1933,13 +1948,13 @@
         <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E30" t="s">
         <v>88</v>
@@ -1953,13 +1968,13 @@
         <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E31" t="s">
         <v>91</v>
@@ -1973,13 +1988,13 @@
         <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E32" t="s">
         <v>94</v>
@@ -1993,13 +2008,13 @@
         <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E33" t="s">
         <v>97</v>
@@ -2013,13 +2028,13 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C34" t="s">
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E34" t="s">
         <v>100</v>
@@ -2033,13 +2048,13 @@
         <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C35" t="s">
         <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E35" t="s">
         <v>103</v>
@@ -2053,13 +2068,13 @@
         <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C36" t="s">
         <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E36" t="s">
         <v>106</v>
@@ -2073,13 +2088,13 @@
         <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C37" t="s">
         <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="E37" t="s">
         <v>109</v>
@@ -2093,11 +2108,11 @@
         <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C38"/>
       <c r="D38" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="E38" t="s">
         <v>112</v>
@@ -2111,11 +2126,11 @@
         <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C39"/>
       <c r="D39" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="E39" t="s">
         <v>115</v>
@@ -2129,11 +2144,11 @@
         <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C40"/>
       <c r="D40" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E40" t="s">
         <v>118</v>
@@ -2147,11 +2162,11 @@
         <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C41"/>
       <c r="D41" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E41" t="s">
         <v>121</v>
@@ -2165,11 +2180,11 @@
         <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C42"/>
       <c r="D42" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E42" t="s">
         <v>124</v>
@@ -2183,11 +2198,11 @@
         <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C43"/>
       <c r="D43" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E43" t="s">
         <v>127</v>
@@ -2201,11 +2216,11 @@
         <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C44"/>
       <c r="D44" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E44" t="s">
         <v>130</v>
@@ -2219,11 +2234,11 @@
         <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C45"/>
       <c r="D45" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E45" t="s">
         <v>133</v>
@@ -2237,11 +2252,11 @@
         <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C46"/>
       <c r="D46" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="E46" t="s">
         <v>136</v>
@@ -2255,11 +2270,11 @@
         <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C47"/>
       <c r="D47" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E47" t="s">
         <v>139</v>
@@ -2273,11 +2288,11 @@
         <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C48"/>
       <c r="D48" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E48" t="s">
         <v>142</v>
@@ -2291,11 +2306,11 @@
         <v>144</v>
       </c>
       <c r="B49" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C49"/>
       <c r="D49" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="E49" t="s">
         <v>145</v>
@@ -2309,11 +2324,11 @@
         <v>147</v>
       </c>
       <c r="B50" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C50"/>
       <c r="D50" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E50" t="s">
         <v>148</v>
@@ -2327,11 +2342,11 @@
         <v>150</v>
       </c>
       <c r="B51" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C51"/>
       <c r="D51" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E51" t="s">
         <v>151</v>
@@ -2345,11 +2360,11 @@
         <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C52"/>
       <c r="D52" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E52" t="s">
         <v>154</v>
@@ -2363,11 +2378,11 @@
         <v>156</v>
       </c>
       <c r="B53" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C53"/>
       <c r="D53" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E53" t="s">
         <v>157</v>
@@ -2381,13 +2396,13 @@
         <v>159</v>
       </c>
       <c r="B54" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C54" t="s">
         <v>160</v>
       </c>
       <c r="D54" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E54" t="s">
         <v>161</v>
@@ -2401,13 +2416,13 @@
         <v>163</v>
       </c>
       <c r="B55" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C55" t="s">
         <v>160</v>
       </c>
       <c r="D55" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E55" t="s">
         <v>164</v>
@@ -2421,13 +2436,13 @@
         <v>166</v>
       </c>
       <c r="B56" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C56" t="s">
         <v>160</v>
       </c>
       <c r="D56" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E56" t="s">
         <v>167</v>
@@ -2441,13 +2456,13 @@
         <v>169</v>
       </c>
       <c r="B57" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C57" t="s">
         <v>160</v>
       </c>
       <c r="D57" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="E57" t="s">
         <v>170</v>
@@ -2461,13 +2476,13 @@
         <v>172</v>
       </c>
       <c r="B58" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C58" t="s">
         <v>160</v>
       </c>
       <c r="D58" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E58" t="s">
         <v>173</v>
@@ -2481,13 +2496,13 @@
         <v>175</v>
       </c>
       <c r="B59" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C59" t="s">
         <v>160</v>
       </c>
       <c r="D59" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -2501,13 +2516,13 @@
         <v>178</v>
       </c>
       <c r="B60" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C60" t="s">
         <v>160</v>
       </c>
       <c r="D60" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E60" t="s">
         <v>179</v>
@@ -2521,13 +2536,13 @@
         <v>181</v>
       </c>
       <c r="B61" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C61" t="s">
         <v>160</v>
       </c>
       <c r="D61" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="E61" t="s">
         <v>182</v>
@@ -2541,13 +2556,13 @@
         <v>184</v>
       </c>
       <c r="B62" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C62" t="s">
         <v>160</v>
       </c>
       <c r="D62" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E62" t="s">
         <v>185</v>
@@ -2561,13 +2576,13 @@
         <v>187</v>
       </c>
       <c r="B63" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C63" t="s">
         <v>160</v>
       </c>
       <c r="D63" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="E63" t="s">
         <v>188</v>
@@ -2581,13 +2596,13 @@
         <v>190</v>
       </c>
       <c r="B64" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C64" t="s">
         <v>160</v>
       </c>
       <c r="D64" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="E64" t="s">
         <v>191</v>
@@ -2601,13 +2616,13 @@
         <v>193</v>
       </c>
       <c r="B65" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C65" t="s">
         <v>160</v>
       </c>
       <c r="D65" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E65" t="s">
         <v>194</v>
@@ -2621,13 +2636,13 @@
         <v>196</v>
       </c>
       <c r="B66" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C66" t="s">
         <v>160</v>
       </c>
       <c r="D66" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E66" t="s">
         <v>197</v>
@@ -2641,13 +2656,13 @@
         <v>199</v>
       </c>
       <c r="B67" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C67" t="s">
         <v>160</v>
       </c>
       <c r="D67" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="E67" t="s">
         <v>200</v>
@@ -2661,13 +2676,13 @@
         <v>202</v>
       </c>
       <c r="B68" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C68" t="s">
         <v>160</v>
       </c>
       <c r="D68" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="E68" t="s">
         <v>203</v>
@@ -2681,13 +2696,13 @@
         <v>205</v>
       </c>
       <c r="B69" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C69" t="s">
         <v>160</v>
       </c>
       <c r="D69" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E69" t="s">
         <v>206</v>
@@ -2701,13 +2716,13 @@
         <v>208</v>
       </c>
       <c r="B70" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C70" t="s">
         <v>160</v>
       </c>
       <c r="D70" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E70" t="s">
         <v>206</v>
@@ -2721,13 +2736,13 @@
         <v>209</v>
       </c>
       <c r="B71" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C71" t="s">
         <v>160</v>
       </c>
       <c r="D71" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="E71" t="s">
         <v>210</v>
@@ -2741,13 +2756,13 @@
         <v>212</v>
       </c>
       <c r="B72" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C72" t="s">
         <v>160</v>
       </c>
       <c r="D72" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="E72" t="s">
         <v>213</v>
@@ -2761,13 +2776,13 @@
         <v>215</v>
       </c>
       <c r="B73" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C73" t="s">
         <v>160</v>
       </c>
       <c r="D73" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E73" t="s">
         <v>216</v>
@@ -2781,13 +2796,13 @@
         <v>218</v>
       </c>
       <c r="B74" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C74" t="s">
         <v>160</v>
       </c>
       <c r="D74" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E74" t="s">
         <v>219</v>
@@ -2801,11 +2816,11 @@
         <v>221</v>
       </c>
       <c r="B75" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C75"/>
       <c r="D75" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E75" t="s">
         <v>222</v>
@@ -2819,11 +2834,11 @@
         <v>224</v>
       </c>
       <c r="B76" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C76"/>
       <c r="D76" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E76" t="s">
         <v>225</v>
@@ -2837,11 +2852,11 @@
         <v>227</v>
       </c>
       <c r="B77" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C77"/>
       <c r="D77" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E77" t="s">
         <v>228</v>
@@ -2855,11 +2870,11 @@
         <v>230</v>
       </c>
       <c r="B78" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C78"/>
       <c r="D78" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E78" t="s">
         <v>231</v>
@@ -2873,11 +2888,11 @@
         <v>233</v>
       </c>
       <c r="B79" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C79"/>
       <c r="D79" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E79" t="s">
         <v>234</v>
@@ -2891,11 +2906,11 @@
         <v>236</v>
       </c>
       <c r="B80" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C80"/>
       <c r="D80" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E80" t="s">
         <v>237</v>
@@ -2909,11 +2924,11 @@
         <v>239</v>
       </c>
       <c r="B81" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C81"/>
       <c r="D81" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="E81" t="s">
         <v>240</v>
@@ -2927,11 +2942,11 @@
         <v>242</v>
       </c>
       <c r="B82" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C82"/>
       <c r="D82" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="E82" t="s">
         <v>243</v>
@@ -2945,11 +2960,11 @@
         <v>245</v>
       </c>
       <c r="B83" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C83"/>
       <c r="D83" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E83" t="s">
         <v>246</v>
@@ -2963,11 +2978,11 @@
         <v>248</v>
       </c>
       <c r="B84" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C84"/>
       <c r="D84" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="E84" t="s">
         <v>249</v>
@@ -2981,11 +2996,11 @@
         <v>251</v>
       </c>
       <c r="B85" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C85"/>
       <c r="D85" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="E85" t="s">
         <v>252</v>
@@ -2999,11 +3014,11 @@
         <v>254</v>
       </c>
       <c r="B86" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C86"/>
       <c r="D86" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="E86" t="s">
         <v>255</v>
@@ -3017,11 +3032,11 @@
         <v>257</v>
       </c>
       <c r="B87" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C87"/>
       <c r="D87" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="E87" t="s">
         <v>258</v>
@@ -3035,11 +3050,11 @@
         <v>260</v>
       </c>
       <c r="B88" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C88"/>
       <c r="D88" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="E88" t="s">
         <v>261</v>
@@ -3053,11 +3068,11 @@
         <v>263</v>
       </c>
       <c r="B89" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C89"/>
       <c r="D89" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E89" t="s">
         <v>264</v>
@@ -3071,11 +3086,11 @@
         <v>266</v>
       </c>
       <c r="B90" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C90"/>
       <c r="D90" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E90" t="s">
         <v>267</v>
@@ -3089,11 +3104,11 @@
         <v>269</v>
       </c>
       <c r="B91" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C91"/>
       <c r="D91" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="E91" t="s">
         <v>270</v>
@@ -3107,11 +3122,11 @@
         <v>272</v>
       </c>
       <c r="B92" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C92"/>
       <c r="D92" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="E92" t="s">
         <v>273</v>
@@ -3125,11 +3140,11 @@
         <v>275</v>
       </c>
       <c r="B93" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C93"/>
       <c r="D93" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="E93" t="s">
         <v>276</v>
@@ -3143,11 +3158,11 @@
         <v>278</v>
       </c>
       <c r="B94" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C94"/>
       <c r="D94" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="E94" t="s">
         <v>279</v>
@@ -3161,11 +3176,11 @@
         <v>281</v>
       </c>
       <c r="B95" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C95"/>
       <c r="D95" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="E95" t="s">
         <v>282</v>
@@ -3179,11 +3194,11 @@
         <v>284</v>
       </c>
       <c r="B96" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C96"/>
       <c r="D96" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="E96" t="s">
         <v>285</v>
@@ -3197,11 +3212,11 @@
         <v>287</v>
       </c>
       <c r="B97" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C97"/>
       <c r="D97" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="E97" t="s">
         <v>288</v>
@@ -3215,11 +3230,11 @@
         <v>290</v>
       </c>
       <c r="B98" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C98"/>
       <c r="D98" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="E98" t="s">
         <v>291</v>
@@ -3233,13 +3248,13 @@
         <v>293</v>
       </c>
       <c r="B99" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C99" t="s">
         <v>294</v>
       </c>
       <c r="D99" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="E99" t="s">
         <v>295</v>
@@ -3253,11 +3268,11 @@
         <v>297</v>
       </c>
       <c r="B100" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C100"/>
       <c r="D100" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E100" t="s">
         <v>298</v>
@@ -3271,11 +3286,11 @@
         <v>300</v>
       </c>
       <c r="B101" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C101"/>
       <c r="D101" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E101" t="s">
         <v>301</v>
@@ -3289,11 +3304,11 @@
         <v>303</v>
       </c>
       <c r="B102" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C102"/>
       <c r="D102" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="E102" t="s">
         <v>304</v>
@@ -3307,11 +3322,11 @@
         <v>306</v>
       </c>
       <c r="B103" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C103"/>
       <c r="D103" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="E103" t="s">
         <v>307</v>
@@ -3325,17 +3340,35 @@
         <v>309</v>
       </c>
       <c r="B104" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C104"/>
       <c r="D104" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E104" t="s">
         <v>310</v>
       </c>
       <c r="F104" t="s">
         <v>311</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>312</v>
+      </c>
+      <c r="B105" t="s">
+        <v>338</v>
+      </c>
+      <c r="C105"/>
+      <c r="D105" t="s">
+        <v>438</v>
+      </c>
+      <c r="E105" t="s">
+        <v>313</v>
+      </c>
+      <c r="F105" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.75 fix 1</t>
+    <t xml:space="preserve">EA 23.81 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>
@@ -1244,10 +1244,10 @@
     <t xml:space="preserve">킹크랩,참다랑어,닭새우,대합,성게,해삼</t>
   </si>
   <si>
-    <t xml:space="preserve">우미먀아!,우먓!,우미미,재미 없어,조심해!,(푸식-・・・)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">풀어다오…!,우리들의 검을…!,나의 검을…!,검을…,나의 친구를…,나의 영혼을…,나의 긍지를…,부탁이다…검을…,이 순간을 기다려왔다…,놈에게 속박된 나의 검을…,녀석에게 빼앗긴 나의 검을…,검을…,해방…시켜주겠나…?,누구냐…?,13</t>
+    <t xml:space="preserve">우미먀아!,우먓!,우미미,재미없어,조심해!,(푸식-・・・)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">해방해다오…!,우리들의 검을…!,나의 검을…!,검을…,나의 친구를…,나의 영혼을…,나의 긍지를…,부탁이다…검을…,이 순간을 기다려왔다…,놈에게 속박된 나의 검을…,녀석에게 빼앗긴 나의 검을…,검을…,해방…시켜주겠나…?,누구냐…?,13</t>
   </si>
   <si>
     <t xml:space="preserve">바보같은,초라한,마음에 드는,좋은 느낌의,마담 잡는,마니아 취향의,존귀한,굉장히 호화로운,왕가 납품,예술적인,거룩한,세계 최고의</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="439">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -754,21 +754,6 @@
     <t xml:space="preserve">年齢帯の選択,,,年齢帯の候補</t>
   </si>
   <si>
-    <t xml:space="preserve">wDifficulty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">서약 선택,,,서약 목록</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose an oath,,,List of oaths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">誓約の選択,,,誓約の候補</t>
-  </si>
-  <si>
     <t xml:space="preserve">wStartMode</t>
   </si>
   <si>
@@ -973,7 +958,7 @@
     <t xml:space="preserve">dayLuck</t>
   </si>
   <si>
-    <t xml:space="preserve">킹크랩,참다랑어,닭새우,대합,성게,해삼</t>
+    <t xml:space="preserve">킹크랩,참다랑어,닭새우,대합조개,성게,해삼</t>
   </si>
   <si>
     <t xml:space="preserve">King Crab,Bluefin Tuna,Spiny Lobster,Common Orient Clam,Sea Urchin,Sea Cucumber</t>
@@ -1234,30 +1219,6 @@
     <t xml:space="preserve">野原の一夜,野原の一夜 (冬)(テスト),洞窟で (テスト)</t>
   </si>
   <si>
-    <t xml:space="preserve">difficulties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">없음,운명의 서약,영원의 서약</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None,Oath of Destiny,Oath of Eternity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">なし,運命の誓約,永遠の誓約</t>
-  </si>
-  <si>
-    <t xml:space="preserve">difficulties_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,운명의 서약자,영원의 서약자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,Destiny Oath Taker,Eternal Oath Taker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,運命の誓約者,永遠の誓約者</t>
-  </si>
-  <si>
     <t xml:space="preserve">exhint_AM_Terrain</t>
   </si>
   <si>
@@ -1352,6 +1313,33 @@
   </si>
   <si>
     <t xml:space="preserve">ハズレ,3等,2等,1等</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pp_templates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.99 Patch 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">신출내기 모험가,모험가,베테랑 모험가,커스텀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novice Adventurer,Adventurer,Veteran Adventurer,Custom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">駆け出し冒険者,冒険者,熟練冒険者,カスタム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pp_titles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">레거시 모험가,신출내기 모험가,모험가,베테랑 모험가,전설의 모험가,신화급 모험가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legacy Adventurer,Novice Adventurer,Adventurer,Veteran Adventurer,Legendary Adventurer,Mythical Adventurer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">レガシー冒険者,駆け出し冒険者,冒険者,熟練冒険者,伝説の冒険者,神話の冒険者</t>
   </si>
 </sst>
 </file>
@@ -1580,12 +1568,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K66" activeCellId="0" sqref="K66"/>
+      <selection pane="bottomLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2674,24 +2662,24 @@
         <v>248</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>249</v>
+        <v>10</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>222</v>
       </c>
       <c r="D60" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="E60" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="F60" s="0" t="s">
         <v>251</v>
-      </c>
-      <c r="F60" s="0" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>10</v>
@@ -2700,21 +2688,21 @@
         <v>222</v>
       </c>
       <c r="D61" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E61" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="F61" s="0" t="s">
         <v>255</v>
-      </c>
-      <c r="F61" s="0" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B62" s="0" t="s">
         <v>257</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>222</v>
@@ -2734,27 +2722,27 @@
         <v>261</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>262</v>
+        <v>10</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>222</v>
       </c>
       <c r="D63" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="E63" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="F63" s="0" t="s">
         <v>264</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B64" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>222</v>
@@ -2794,24 +2782,24 @@
         <v>275</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>276</v>
+        <v>82</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>222</v>
       </c>
       <c r="D66" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="E66" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="E66" s="0" t="s">
+      <c r="F66" s="0" t="s">
         <v>278</v>
-      </c>
-      <c r="F66" s="0" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>82</v>
@@ -2820,21 +2808,21 @@
         <v>222</v>
       </c>
       <c r="D67" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="E67" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="E67" s="0" t="s">
+      <c r="F67" s="0" t="s">
         <v>282</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B68" s="0" t="s">
         <v>284</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>82</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>222</v>
@@ -2854,64 +2842,64 @@
         <v>288</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>222</v>
       </c>
       <c r="D69" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="E69" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="E69" s="0" t="s">
+      <c r="F69" s="0" t="s">
         <v>291</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B70" s="0" t="s">
         <v>293</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>82</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>222</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>298</v>
+        <v>82</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>222</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>82</v>
@@ -2920,18 +2908,18 @@
         <v>222</v>
       </c>
       <c r="D72" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="E72" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="F72" s="0" t="s">
         <v>301</v>
-      </c>
-      <c r="F72" s="0" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>82</v>
@@ -2940,418 +2928,418 @@
         <v>222</v>
       </c>
       <c r="D73" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="E73" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="F73" s="0" t="s">
         <v>305</v>
-      </c>
-      <c r="F73" s="0" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>222</v>
       </c>
       <c r="D74" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="E74" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="F74" s="0" t="s">
         <v>309</v>
-      </c>
-      <c r="F74" s="0" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="D75" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="B75" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="D75" s="0" t="s">
+      <c r="E75" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="E75" s="0" t="s">
+      <c r="F75" s="0" t="s">
         <v>313</v>
-      </c>
-      <c r="F75" s="0" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="B76" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="D76" s="0" t="s">
+      <c r="E76" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="E76" s="0" t="s">
+      <c r="F76" s="0" t="s">
         <v>317</v>
-      </c>
-      <c r="F76" s="0" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D77" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="B77" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D77" s="0" t="s">
+      <c r="E77" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="E77" s="0" t="s">
+      <c r="F77" s="0" t="s">
         <v>321</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>65</v>
       </c>
       <c r="D78" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="E78" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="E78" s="0" t="s">
+      <c r="F78" s="0" t="s">
         <v>325</v>
-      </c>
-      <c r="F78" s="0" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>65</v>
       </c>
       <c r="D79" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="E79" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="E79" s="0" t="s">
+      <c r="F79" s="0" t="s">
         <v>329</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="D80" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="B80" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D80" s="0" t="s">
+      <c r="E80" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="E80" s="0" t="s">
+      <c r="F80" s="0" t="s">
         <v>333</v>
-      </c>
-      <c r="F80" s="0" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>213</v>
       </c>
       <c r="D81" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="E81" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="E81" s="0" t="s">
+      <c r="F81" s="0" t="s">
         <v>337</v>
-      </c>
-      <c r="F81" s="0" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>213</v>
       </c>
       <c r="D82" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E82" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="E82" s="0" t="s">
+      <c r="F82" s="0" t="s">
         <v>341</v>
-      </c>
-      <c r="F82" s="0" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>213</v>
       </c>
       <c r="D83" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="E83" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="E83" s="0" t="s">
+      <c r="F83" s="0" t="s">
         <v>345</v>
-      </c>
-      <c r="F83" s="0" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>213</v>
       </c>
       <c r="D84" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="E84" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="E84" s="0" t="s">
+      <c r="F84" s="0" t="s">
         <v>349</v>
-      </c>
-      <c r="F84" s="0" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>213</v>
       </c>
       <c r="D85" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="E85" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="E85" s="0" t="s">
+      <c r="F85" s="0" t="s">
         <v>353</v>
-      </c>
-      <c r="F85" s="0" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>213</v>
       </c>
       <c r="D86" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="E86" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="E86" s="0" t="s">
+      <c r="F86" s="0" t="s">
         <v>357</v>
-      </c>
-      <c r="F86" s="0" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>213</v>
       </c>
       <c r="D87" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="E87" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="E87" s="0" t="s">
+      <c r="F87" s="0" t="s">
         <v>361</v>
-      </c>
-      <c r="F87" s="0" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>213</v>
       </c>
       <c r="D88" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="E88" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="E88" s="0" t="s">
+      <c r="F88" s="0" t="s">
         <v>365</v>
-      </c>
-      <c r="F88" s="0" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>213</v>
       </c>
       <c r="D89" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E89" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="E89" s="0" t="s">
+      <c r="F89" s="0" t="s">
         <v>369</v>
-      </c>
-      <c r="F89" s="0" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>213</v>
       </c>
       <c r="D90" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="E90" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="E90" s="0" t="s">
+      <c r="F90" s="0" t="s">
         <v>373</v>
-      </c>
-      <c r="F90" s="0" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>213</v>
       </c>
       <c r="D91" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="E91" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="E91" s="0" t="s">
+      <c r="F91" s="0" t="s">
         <v>377</v>
-      </c>
-      <c r="F91" s="0" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D92" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="B92" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="D92" s="0" t="s">
+      <c r="E92" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="E92" s="0" t="s">
+      <c r="F92" s="0" t="s">
         <v>381</v>
-      </c>
-      <c r="F92" s="0" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>82</v>
       </c>
       <c r="D93" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="E93" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="E93" s="0" t="s">
+      <c r="F93" s="0" t="s">
         <v>385</v>
-      </c>
-      <c r="F93" s="0" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="D94" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="B94" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D94" s="0" t="s">
+      <c r="E94" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="E94" s="0" t="s">
+      <c r="F94" s="0" t="s">
         <v>389</v>
-      </c>
-      <c r="F94" s="0" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="D95" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="B95" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="D95" s="0" t="s">
+      <c r="E95" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="E95" s="0" t="s">
+      <c r="F95" s="0" t="s">
         <v>393</v>
-      </c>
-      <c r="F95" s="0" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D96" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="B96" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="D96" s="0" t="s">
+      <c r="E96" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="E96" s="0" t="s">
+      <c r="F96" s="0" t="s">
         <v>397</v>
-      </c>
-      <c r="F96" s="0" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C97" s="0" t="s">
         <v>399</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>47</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>400</v>
@@ -3368,7 +3356,7 @@
         <v>403</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>404</v>
@@ -3385,7 +3373,7 @@
         <v>407</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>408</v>
@@ -3402,27 +3390,24 @@
         <v>411</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="C100" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D100" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="E100" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="E100" s="0" t="s">
+      <c r="F100" s="0" t="s">
         <v>414</v>
-      </c>
-      <c r="F100" s="0" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="B101" s="0" t="s">
         <v>416</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>204</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>417</v>
@@ -3439,84 +3424,67 @@
         <v>420</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>204</v>
+        <v>421</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>204</v>
+        <v>426</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
         <v>438</v>
-      </c>
-      <c r="B106" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="D106" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="E106" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="F106" s="0" t="s">
-        <v>442</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.108</t>
+    <t xml:space="preserve">EA 23.109 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="448">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -526,6 +526,12 @@
     <t xml:space="preserve">森</t>
   </si>
   <si>
+    <t xml:space="preserve">zone_R_Forest_cherry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.140</t>
+  </si>
+  <si>
     <t xml:space="preserve">zone_R_Shore</t>
   </si>
   <si>
@@ -592,7 +598,7 @@
     <t xml:space="preserve">Alpha 20.67</t>
   </si>
   <si>
-    <t xml:space="preserve">오빠,오빠♪,오빠-,오빠!,오빠?,오빠!?</t>
+    <t xml:space="preserve">오빠,오빠♪,오빠ー,오빠!,오빠?,오빠!?</t>
   </si>
   <si>
     <t xml:space="preserve">Onii♪,Oni-chan!,Oniichan♪,Oni-chan,Oni-chan?,Oni-chan!?</t>
@@ -604,7 +610,7 @@
     <t xml:space="preserve">onee</t>
   </si>
   <si>
-    <t xml:space="preserve">언니,언니♪,언니-,언니!,언니?,언니!?</t>
+    <t xml:space="preserve">언니,언니♪,언니ー,언니!,언니?,언니!?</t>
   </si>
   <si>
     <t xml:space="preserve">Onee♪,Onee-chan!,Oneechan♪,One-chan,One-chan?,One-chan!?</t>
@@ -1373,7 +1379,7 @@
   <fonts count="4">
     <font>
       <sz val="10"/>
-      <name val="나눔고딕"/>
+      <name val="Noto Sans KR"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
@@ -1593,17 +1599,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J95" activeCellId="0" sqref="J95"/>
+      <selection pane="bottomLeft" activeCell="D51" activeCellId="0" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="14.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2363,543 +2369,540 @@
         <v>167</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D63" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D69" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2907,643 +2910,663 @@
         <v>292</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D74" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D75" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D77" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D78" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D79" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D81" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D82" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D83" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D84" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D85" s="1" t="s">
+      <c r="F85" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D86" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D87" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D88" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D89" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D90" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D91" s="1" t="s">
+      <c r="F91" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D92" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D94" s="1" t="s">
+      <c r="F94" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D95" s="1" t="s">
+      <c r="F95" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D96" s="1" t="s">
+      <c r="F96" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D97" s="1" t="s">
+      <c r="F97" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C98" s="1" t="s">
+      <c r="F98" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D99" s="1" t="s">
+      <c r="F99" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D100" s="1" t="s">
+      <c r="F100" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D101" s="1" t="s">
+      <c r="F101" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="F102" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="F103" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="F104" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="F105" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D106" s="1" t="s">
+      <c r="F106" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="F107" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D107" s="1" t="s">
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>445</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="465">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -617,6 +617,33 @@
   </si>
   <si>
     <t xml:space="preserve">部屋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onii2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">오빠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お兄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onee2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">언니</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お姉</t>
   </si>
   <si>
     <t xml:space="preserve">onii</t>
@@ -1403,7 +1430,7 @@
   <fonts count="4">
     <font>
       <sz val="10"/>
-      <name val="Noto Sans KR"/>
+      <name val="나눔고딕"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
@@ -1619,17 +1646,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J97" activeCellId="0" sqref="J97"/>
+      <selection pane="bottomLeft" activeCell="K64" activeCellId="0" sqref="K64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="14.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2576,24 +2603,24 @@
         <v>212</v>
       </c>
       <c r="B53" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D53" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="E53" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="F53" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="F53" s="0" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B54" s="0" t="s">
         <v>217</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>213</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>218</v>
@@ -2627,7 +2654,7 @@
         <v>226</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>227</v>
@@ -2644,9 +2671,6 @@
         <v>230</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="0" t="s">
         <v>231</v>
       </c>
       <c r="D57" s="0" t="s">
@@ -2666,9 +2690,6 @@
       <c r="B58" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="0" t="s">
-        <v>231</v>
-      </c>
       <c r="D58" s="0" t="s">
         <v>236</v>
       </c>
@@ -2687,47 +2708,47 @@
         <v>10</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>248</v>
+        <v>10</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>249</v>
@@ -2744,30 +2765,30 @@
         <v>252</v>
       </c>
       <c r="B62" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D62" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="C62" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="D62" s="0" t="s">
+      <c r="E62" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="F62" s="0" t="s">
         <v>255</v>
-      </c>
-      <c r="F62" s="0" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B63" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="C63" s="0" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>258</v>
@@ -2784,30 +2805,30 @@
         <v>261</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>10</v>
+        <v>262</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>266</v>
+        <v>10</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>267</v>
@@ -2827,7 +2848,7 @@
         <v>10</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>271</v>
@@ -2847,7 +2868,7 @@
         <v>275</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>276</v>
@@ -2864,30 +2885,30 @@
         <v>279</v>
       </c>
       <c r="B68" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D68" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="C68" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="D68" s="0" t="s">
+      <c r="E68" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="E68" s="0" t="s">
+      <c r="F68" s="0" t="s">
         <v>282</v>
-      </c>
-      <c r="F68" s="0" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B69" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="B69" s="0" t="s">
-        <v>87</v>
-      </c>
       <c r="C69" s="0" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>285</v>
@@ -2904,30 +2925,30 @@
         <v>288</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>87</v>
+        <v>289</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>293</v>
+        <v>87</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>294</v>
@@ -2947,7 +2968,7 @@
         <v>87</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>298</v>
@@ -2967,498 +2988,501 @@
         <v>302</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>87</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D75" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="B75" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="D75" s="0" t="s">
+      <c r="E75" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="E75" s="0" t="s">
+      <c r="F75" s="0" t="s">
         <v>309</v>
-      </c>
-      <c r="F75" s="0" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>87</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>253</v>
+        <v>87</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>240</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>34</v>
+        <v>10</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>240</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>70</v>
+        <v>262</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>70</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>222</v>
+        <v>70</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>222</v>
+        <v>70</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>87</v>
+        <v>231</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>87</v>
+        <v>231</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>253</v>
+        <v>87</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>253</v>
+        <v>100</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>52</v>
+        <v>262</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>412</v>
+        <v>262</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>413</v>
@@ -3475,7 +3499,7 @@
         <v>416</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>213</v>
+        <v>52</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>417</v>
@@ -3492,58 +3516,61 @@
         <v>420</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>213</v>
+        <v>284</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>421</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>433</v>
+        <v>222</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>434</v>
@@ -3560,41 +3587,41 @@
         <v>437</v>
       </c>
       <c r="B107" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="E107" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="E107" s="0" t="s">
+      <c r="F107" s="0" t="s">
         <v>440</v>
-      </c>
-      <c r="F107" s="0" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="B108" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="D108" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="D108" s="0" t="s">
+      <c r="E108" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="E108" s="0" t="s">
+      <c r="F108" s="0" t="s">
         <v>445</v>
-      </c>
-      <c r="F108" s="0" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="B109" s="0" t="s">
         <v>447</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>443</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>448</v>
@@ -3621,6 +3648,40 @@
       </c>
       <c r="F110" s="0" t="s">
         <v>455</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>464</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.188 Patch 2</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.209 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.212</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.212</t>
+    <t xml:space="preserve">EA 23.222</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.222</t>
+    <t xml:space="preserve">EA 23.229 Patch 3</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/List.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.229 Patch 3</t>
+    <t xml:space="preserve">EA 23.237 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>
